--- a/MainTop/20.01.2026 Таня ВБ/p6.xlsx
+++ b/MainTop/20.01.2026 Таня ВБ/p6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Среднее количество заказов в день, шт</t>
+          <t>Num_Copies</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Остатки склад ВБ, шт</t>
+          <t>Тип упорядочить</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Остатки МП, шт</t>
+          <t>Имя папки</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>дней</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Num_Copies</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Тип упорядочить</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Имя папки</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Остаток</t>
         </is>
@@ -487,32 +467,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6_а4_настройки_60</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6_а4_настройки_60</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>-23.7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -522,32 +490,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6_а4_настройки_60</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6_а4_настройки_60</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>-35.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -557,32 +513,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6_а4_настройки_60</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6_а4_настройки_60</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>-30.3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
